--- a/SO SACH/2011/NKSC - 11 - Copy.xlsx
+++ b/SO SACH/2011/NKSC - 11 - Copy.xlsx
@@ -5669,20 +5669,12 @@
     <xf numFmtId="0" fontId="38" fillId="21" borderId="20" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="91" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5702,12 +5694,20 @@
     <xf numFmtId="164" fontId="34" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="91" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -7936,11 +7936,11 @@
   <dimension ref="A1:L1742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="M1094" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="N7" sqref="N7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J1111" sqref="J1111"/>
+      <selection pane="bottomRight" activeCell="G987" sqref="G987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -57424,13 +57424,13 @@
       <c r="E1" s="72"/>
       <c r="F1" s="73"/>
       <c r="G1" s="73"/>
-      <c r="H1" s="231" t="s">
+      <c r="H1" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
       <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13" s="70" customFormat="1" ht="14.25" customHeight="1">
@@ -57442,13 +57442,13 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
-      <c r="H2" s="232" t="s">
+      <c r="H2" s="240" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
       <c r="M2" s="77"/>
     </row>
     <row r="3" spans="1:13" s="70" customFormat="1" ht="14.25" customHeight="1">
@@ -57458,123 +57458,123 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
-      <c r="H3" s="233" t="s">
+      <c r="H3" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
       <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" s="79" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="242" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
       <c r="M4" s="80"/>
     </row>
     <row r="5" spans="1:13" s="79" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="238" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
       <c r="M5" s="80"/>
     </row>
     <row r="6" spans="1:13" s="79" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="238" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
-      <c r="L6" s="230"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
       <c r="M6" s="80"/>
     </row>
     <row r="7" spans="1:13" s="81" customFormat="1" ht="24" hidden="1" customHeight="1">
-      <c r="C7" s="241" t="s">
+      <c r="C7" s="230" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="241"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
       <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="232" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="233" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="237" t="s">
+      <c r="D8" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="239" t="s">
+      <c r="E8" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B9" s="235"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239" t="s">
+      <c r="B9" s="232"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="236" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="240" t="s">
+      <c r="F9" s="236"/>
+      <c r="G9" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240" t="s">
+      <c r="H9" s="237"/>
+      <c r="I9" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240" t="s">
+      <c r="J9" s="237"/>
+      <c r="K9" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="240"/>
+      <c r="L9" s="237"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" hidden="1" customHeight="1">
-      <c r="B10" s="235"/>
-      <c r="C10" s="236"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="233"/>
       <c r="D10" s="85"/>
       <c r="E10" s="86" t="s">
         <v>142</v>
@@ -63945,18 +63945,18 @@
       <c r="M162" s="83"/>
     </row>
     <row r="163" spans="3:13" ht="19.5" customHeight="1">
-      <c r="C163" s="242"/>
-      <c r="D163" s="242"/>
-      <c r="E163" s="242"/>
+      <c r="C163" s="231"/>
+      <c r="D163" s="231"/>
+      <c r="E163" s="231"/>
       <c r="F163" s="110"/>
       <c r="G163" s="110"/>
       <c r="H163" s="110"/>
       <c r="I163" s="110"/>
-      <c r="J163" s="242" t="s">
+      <c r="J163" s="231" t="s">
         <v>145</v>
       </c>
-      <c r="K163" s="242"/>
-      <c r="L163" s="242"/>
+      <c r="K163" s="231"/>
+      <c r="L163" s="231"/>
       <c r="M163" s="83"/>
     </row>
     <row r="164" spans="3:13" ht="19.5" customHeight="1">
@@ -63965,17 +63965,17 @@
       </c>
       <c r="D164" s="111"/>
       <c r="E164" s="111"/>
-      <c r="F164" s="242" t="s">
+      <c r="F164" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="G164" s="242"/>
-      <c r="H164" s="242"/>
+      <c r="G164" s="231"/>
+      <c r="H164" s="231"/>
       <c r="I164" s="110"/>
-      <c r="J164" s="242" t="s">
+      <c r="J164" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="K164" s="242"/>
-      <c r="L164" s="242"/>
+      <c r="K164" s="231"/>
+      <c r="L164" s="231"/>
       <c r="M164" s="83"/>
     </row>
     <row r="165" spans="3:13" ht="19.5" customHeight="1">
@@ -63986,17 +63986,17 @@
         <v>146</v>
       </c>
       <c r="E165" s="111"/>
-      <c r="F165" s="242" t="s">
+      <c r="F165" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="242"/>
-      <c r="H165" s="242"/>
+      <c r="G165" s="231"/>
+      <c r="H165" s="231"/>
       <c r="I165" s="83"/>
-      <c r="J165" s="242" t="s">
+      <c r="J165" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="K165" s="242"/>
-      <c r="L165" s="242"/>
+      <c r="K165" s="231"/>
+      <c r="L165" s="231"/>
       <c r="M165" s="83"/>
     </row>
     <row r="166" spans="3:13" ht="20.25" customHeight="1">
@@ -64078,13 +64078,12 @@
   </sheetData>
   <autoFilter ref="B11:M160"/>
   <mergeCells count="21">
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="J163:L163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="J164:L164"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D9"/>
@@ -64093,12 +64092,13 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="J163:L163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="J164:L164"/>
   </mergeCells>
   <pageMargins left="0.71" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
